--- a/biology/Zoologie/Maurice_Jean_Auguste_Girard/Maurice_Jean_Auguste_Girard.xlsx
+++ b/biology/Zoologie/Maurice_Jean_Auguste_Girard/Maurice_Jean_Auguste_Girard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Jean Auguste Girard est un entomologiste français, né le 13 septembre 1822 à Givet (Ardennes) et mort le 8 septembre 1886 à Lion-sur-Mer (Calvados).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient, au concours général de 1840, le septième accessit d'histoire[1].
-Il entre à l’École normale en 1844. En 1847, il est nommé à Périgueux où il enseigne la physique. Après avoir obtenu son agrégation, il part à Dijon où il enseigne de 1853 à 1873. Il obtient durant ce temps sa licence et son doctorat ès-sciences naturelles avec une thèse sur l’Étude sur la chaleur libre dégagée par les animaux invertébrés et spécialement les insectes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient, au concours général de 1840, le septième accessit d'histoire.
+Il entre à l’École normale en 1844. En 1847, il est nommé à Périgueux où il enseigne la physique. Après avoir obtenu son agrégation, il part à Dijon où il enseigne de 1853 à 1873. Il obtient durant ce temps sa licence et son doctorat ès-sciences naturelles avec une thèse sur l’Étude sur la chaleur libre dégagée par les animaux invertébrés et spécialement les insectes.
 Girard dirige L'Insectologie agricole, journal traitant des insectes utiles... et des insectes nuisibles... de 1867 à 1870. Il fait paraître plus de 200 publications dont un livre sur François Péron, naturaliste voyageur aux australes (1800-1804) (J.-B. Baillière, Paris, 1856).
 Il décrivit Italochrysa chloromelas et Apochrysa montrouzieri (Neuroptera, Chrysopidae) (ce dernier reçut, à l'époque, la dénomination de Hemerobius stigma) en 1862.
 </t>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>F. Péron, naturaliste, voyageur aux terres australes: Sa vie, appréciation de ses travaux, Paris, Baillière &amp; fils, Moulins, Enaut, 1857, 272 pages
 Indication et discussion d'un nouveau caractère générique du genre Hemerobius, tribu des Myrméléoniens, ordre des Névroptères et description de deux espèces nouvelles de ce genre recueillies par le R. P. Montrouzier et désignées par Lui sons les noms de C, Annales de la Société entomologique de France, 1862, (4)2:597-614.
@@ -590,7 +606,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Lhoste, Les entomologistes français : 1750-1950, INRA Éditions, 1987, 351 p.</t>
         </is>
